--- a/KYProject2/Assets/Data/Data.xlsx
+++ b/KYProject2/Assets/Data/Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gamemaking\UnityBasic2\KYProject2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E0B41-F474-45C9-8D12-D271245396B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3450" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Character" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +26,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호시노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대책위원회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으헤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoshino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읗헤헤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,28 +402,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF182BC-0522-41CF-AD73-DB3374089C84}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>10001</v>
+      </c>
+      <c r="B2">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>10301</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
